--- a/消息中间件/RabbitMQ概念梳理.xlsx
+++ b/消息中间件/RabbitMQ概念梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18645" windowHeight="17730"/>
+    <workbookView windowHeight="18090"/>
   </bookViews>
   <sheets>
     <sheet name="RabbitMQ概念梳理" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,43 +46,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,9 +61,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,17 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,16 +106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,8 +129,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +158,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -188,6 +188,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,37 +293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,25 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,97 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +382,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,6 +440,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,39 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -456,32 +482,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,8 +835,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -846,7 +846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3114675" y="1981200"/>
-          <a:ext cx="4457700" cy="1076325"/>
+          <a:ext cx="4457700" cy="1294765"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2116,15 +2116,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2133,8 +2133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409950" y="6724650"/>
-          <a:ext cx="4057650" cy="1371600"/>
+          <a:off x="3286125" y="6743700"/>
+          <a:ext cx="4057650" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2216,7 +2216,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的消息被指定到一个</a:t>
+            <a:t>的消息被发送到指定的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2240,15 +2240,63 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>（绑定规则）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>确定将消息发送到哪个队列</a:t>
+            <a:t>（绑定规则）确定将消息发送到哪个队列</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Queue</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Exchange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可以定义不同的分发策略，目前共有四种分发策略：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>direct /fanout/topic/handers  headers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>匹配</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AMQP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>header</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>而不是路由键，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>header</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>交换器和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>direct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>交换器完全一致，但性能差很多，目前几乎用不到了</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3126,8 +3174,8 @@
   <sheetPr/>
   <dimension ref="G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
